--- a/pred_ohlcv/54_21/2019-10-21 PST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 PST ohlcv.xlsx
@@ -5072,7 +5072,7 @@
         <v>-41551.60453921788</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-44948.08863921788</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-44938.08863921788</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-37757.40583921788</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-584.5272392178813</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-8449.89233921788</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-8449.89233921788</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-6571.88513921788</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-11880.53093921788</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-11870.53093921788</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-5327.527839217881</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-4482.085339217881</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-3520.696439217881</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3232.247639217883</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-3835.247639217883</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4770.117139217882</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-7080.117139217882</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-42986.29243921789</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-45644.32923921789</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-40686.98263921789</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-23402.43253921789</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3674.935339217893</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-410.4528392178927</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>25089.46376078211</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>28123.07886078211</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>24933.57336078211</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>23943.57336078211</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>29062.5902607821</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>84520.37616078211</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>93805.9106607821</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>91005.34156078211</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>91300.57540061951</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>77048.3358006195</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>95092.45180061951</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>95092.45180061951</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>89795.28856078212</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>70117.89716078213</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>70009.89716078213</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>64188.43876078213</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>61996.24084411546</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-62204.96784578991</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-104589.6017457899</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-108445.6718457899</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-111444.6718457899</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-119742.4458457899</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-118731.4458457899</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-122913.0521457899</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-95242.94694578995</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-95768.67424578995</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-95654.69634578995</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-21 PST ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 PST ohlcv.xlsx
@@ -5098,7 +5098,7 @@
         <v>-44948.08863921788</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-44938.08863921788</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-37757.40583921788</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-3232.247639217883</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-3835.247639217883</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1226.117139217883</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-4770.117139217882</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-7080.117139217882</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-42986.29243921789</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-45644.32923921789</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-41258.03083921789</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-40686.98263921789</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-34930.39863921789</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-23402.43253921789</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-3674.935339217893</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-410.4528392178927</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>25089.46376078211</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>28123.07886078211</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>24933.57336078211</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>23943.57336078211</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>29062.5902607821</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>84604.70066078211</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>84520.37616078211</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>93805.9106607821</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>91005.34156078211</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>91300.57540061951</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>77048.3358006195</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>90458.97650061951</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>95092.45180061951</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>95092.45180061951</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>93634.65796078212</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>89795.28856078212</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>70117.89716078213</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-62204.96784578991</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-104589.6017457899</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-108445.6718457899</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-108434.6718457899</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-111444.6718457899</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-118420.4458457899</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-121175.7599457899</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-122924.0521457899</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-122913.0521457899</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-115928.5037457899</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-109252.2782457899</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-88092.40154578991</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-87927.60374578991</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-92830.06344578991</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-88829.98874578992</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-93969.55984578992</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-93958.99554578992</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-94606.99554578992</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-91043.32744578992</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-91033.32654578993</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-92578.65144578993</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-94119.19194578993</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-94109.19114578994</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-94245.13204578994</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-96267.86404578995</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-95254.05804578995</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-95242.94694578995</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-95768.67424578995</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-95654.69634578995</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-96023.48164578996</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
